--- a/outputs/paper/UCI_APPLIANCES_ENERGY_Results.xlsx
+++ b/outputs/paper/UCI_APPLIANCES_ENERGY_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>dataset_name</t>
   </si>
@@ -82,6 +82,66 @@
     <t>total_perf_duration_minutes_seed_214</t>
   </si>
   <si>
+    <t>change_point_perc_seed_565</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_565</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_600</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_600</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_713</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_713</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_999</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_999</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_1001</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_1001</t>
+  </si>
+  <si>
     <t>change_point_perc_mean</t>
   </si>
   <si>
@@ -178,7 +238,7 @@
     <t>Fixed Cut 90%</t>
   </si>
   <si>
-    <t>Full</t>
+    <t>No CPD</t>
   </si>
   <si>
     <t>Window AR</t>
@@ -557,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,16 +714,76 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>38.99</v>
@@ -729,36 +849,96 @@
         <v>38.99</v>
       </c>
       <c r="Y2">
+        <v>3.06</v>
+      </c>
+      <c r="Z2">
+        <v>1589.71</v>
+      </c>
+      <c r="AA2">
+        <v>26.5</v>
+      </c>
+      <c r="AB2">
+        <v>38.99</v>
+      </c>
+      <c r="AC2">
+        <v>3.74</v>
+      </c>
+      <c r="AD2">
+        <v>1550.21</v>
+      </c>
+      <c r="AE2">
+        <v>25.84</v>
+      </c>
+      <c r="AF2">
+        <v>38.99</v>
+      </c>
+      <c r="AG2">
+        <v>2.8</v>
+      </c>
+      <c r="AH2">
+        <v>1737.87</v>
+      </c>
+      <c r="AI2">
+        <v>28.96</v>
+      </c>
+      <c r="AJ2">
+        <v>38.99</v>
+      </c>
+      <c r="AK2">
+        <v>3.07</v>
+      </c>
+      <c r="AL2">
+        <v>1934.29</v>
+      </c>
+      <c r="AM2">
+        <v>32.24</v>
+      </c>
+      <c r="AN2">
+        <v>38.99</v>
+      </c>
+      <c r="AO2">
+        <v>2.94</v>
+      </c>
+      <c r="AP2">
+        <v>1719.51</v>
+      </c>
+      <c r="AQ2">
+        <v>28.66</v>
+      </c>
+      <c r="AR2">
+        <v>38.99</v>
+      </c>
+      <c r="AS2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>3.34</v>
-      </c>
-      <c r="AA2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>1930.15</v>
-      </c>
-      <c r="AC2">
-        <v>391.94</v>
-      </c>
-      <c r="AD2">
-        <v>32.17</v>
-      </c>
-      <c r="AE2">
-        <v>6.53</v>
+      <c r="AT2">
+        <v>3.23</v>
+      </c>
+      <c r="AU2">
+        <v>0.46</v>
+      </c>
+      <c r="AV2">
+        <v>1818.23</v>
+      </c>
+      <c r="AW2">
+        <v>303.83</v>
+      </c>
+      <c r="AX2">
+        <v>30.3</v>
+      </c>
+      <c r="AY2">
+        <v>5.06</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:51">
       <c r="A3" s="1">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>68.18000000000001</v>
@@ -824,36 +1004,96 @@
         <v>68.18000000000001</v>
       </c>
       <c r="Y3">
+        <v>3.54</v>
+      </c>
+      <c r="Z3">
+        <v>789.27</v>
+      </c>
+      <c r="AA3">
+        <v>13.15</v>
+      </c>
+      <c r="AB3">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>3.31</v>
+      </c>
+      <c r="AD3">
+        <v>1078.95</v>
+      </c>
+      <c r="AE3">
+        <v>17.98</v>
+      </c>
+      <c r="AF3">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>3.38</v>
+      </c>
+      <c r="AH3">
+        <v>1181.43</v>
+      </c>
+      <c r="AI3">
+        <v>19.69</v>
+      </c>
+      <c r="AJ3">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AK3">
+        <v>3.31</v>
+      </c>
+      <c r="AL3">
+        <v>1304.3</v>
+      </c>
+      <c r="AM3">
+        <v>21.74</v>
+      </c>
+      <c r="AN3">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>3.23</v>
+      </c>
+      <c r="AP3">
+        <v>1132.01</v>
+      </c>
+      <c r="AQ3">
+        <v>18.87</v>
+      </c>
+      <c r="AR3">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AS3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>3.56</v>
-      </c>
-      <c r="AA3">
-        <v>0.59</v>
-      </c>
-      <c r="AB3">
-        <v>1185.71</v>
-      </c>
-      <c r="AC3">
-        <v>301.07</v>
-      </c>
-      <c r="AD3">
-        <v>19.76</v>
-      </c>
-      <c r="AE3">
-        <v>5.02</v>
+      <c r="AT3">
+        <v>3.46</v>
+      </c>
+      <c r="AU3">
+        <v>0.41</v>
+      </c>
+      <c r="AV3">
+        <v>1141.45</v>
+      </c>
+      <c r="AW3">
+        <v>242.33</v>
+      </c>
+      <c r="AX3">
+        <v>19.02</v>
+      </c>
+      <c r="AY3">
+        <v>4.04</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>51.78</v>
@@ -919,36 +1159,96 @@
         <v>51.78</v>
       </c>
       <c r="Y4">
+        <v>3.31</v>
+      </c>
+      <c r="Z4">
+        <v>1009.97</v>
+      </c>
+      <c r="AA4">
+        <v>16.83</v>
+      </c>
+      <c r="AB4">
+        <v>51.78</v>
+      </c>
+      <c r="AC4">
+        <v>3.05</v>
+      </c>
+      <c r="AD4">
+        <v>1284.17</v>
+      </c>
+      <c r="AE4">
+        <v>21.4</v>
+      </c>
+      <c r="AF4">
+        <v>51.78</v>
+      </c>
+      <c r="AG4">
+        <v>2.78</v>
+      </c>
+      <c r="AH4">
+        <v>1624.69</v>
+      </c>
+      <c r="AI4">
+        <v>27.08</v>
+      </c>
+      <c r="AJ4">
+        <v>51.78</v>
+      </c>
+      <c r="AK4">
+        <v>3.13</v>
+      </c>
+      <c r="AL4">
+        <v>1611.24</v>
+      </c>
+      <c r="AM4">
+        <v>26.85</v>
+      </c>
+      <c r="AN4">
+        <v>51.78</v>
+      </c>
+      <c r="AO4">
+        <v>2.79</v>
+      </c>
+      <c r="AP4">
+        <v>1362.72</v>
+      </c>
+      <c r="AQ4">
+        <v>22.71</v>
+      </c>
+      <c r="AR4">
+        <v>51.78</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>3.15</v>
-      </c>
-      <c r="AA4">
-        <v>0.47</v>
-      </c>
-      <c r="AB4">
-        <v>1733.43</v>
-      </c>
-      <c r="AC4">
-        <v>301.72</v>
-      </c>
-      <c r="AD4">
-        <v>28.89</v>
-      </c>
-      <c r="AE4">
-        <v>5.03</v>
+      <c r="AT4">
+        <v>3.08</v>
+      </c>
+      <c r="AU4">
+        <v>0.36</v>
+      </c>
+      <c r="AV4">
+        <v>1555.99</v>
+      </c>
+      <c r="AW4">
+        <v>322.96</v>
+      </c>
+      <c r="AX4">
+        <v>25.93</v>
+      </c>
+      <c r="AY4">
+        <v>5.38</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:51">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>75.5</v>
@@ -1014,36 +1314,96 @@
         <v>75.5</v>
       </c>
       <c r="Y5">
+        <v>3.87</v>
+      </c>
+      <c r="Z5">
+        <v>735.42</v>
+      </c>
+      <c r="AA5">
+        <v>12.26</v>
+      </c>
+      <c r="AB5">
+        <v>75.5</v>
+      </c>
+      <c r="AC5">
+        <v>3.68</v>
+      </c>
+      <c r="AD5">
+        <v>862</v>
+      </c>
+      <c r="AE5">
+        <v>14.37</v>
+      </c>
+      <c r="AF5">
+        <v>75.5</v>
+      </c>
+      <c r="AG5">
+        <v>3.71</v>
+      </c>
+      <c r="AH5">
+        <v>870.49</v>
+      </c>
+      <c r="AI5">
+        <v>14.51</v>
+      </c>
+      <c r="AJ5">
+        <v>75.5</v>
+      </c>
+      <c r="AK5">
+        <v>3.91</v>
+      </c>
+      <c r="AL5">
+        <v>1065.07</v>
+      </c>
+      <c r="AM5">
+        <v>17.75</v>
+      </c>
+      <c r="AN5">
+        <v>75.5</v>
+      </c>
+      <c r="AO5">
+        <v>3.49</v>
+      </c>
+      <c r="AP5">
+        <v>1038.85</v>
+      </c>
+      <c r="AQ5">
+        <v>17.31</v>
+      </c>
+      <c r="AR5">
+        <v>75.5</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>3.67</v>
-      </c>
-      <c r="AA5">
-        <v>0.45</v>
-      </c>
-      <c r="AB5">
-        <v>1051.51</v>
-      </c>
-      <c r="AC5">
-        <v>207.1</v>
-      </c>
-      <c r="AD5">
-        <v>17.53</v>
-      </c>
-      <c r="AE5">
-        <v>3.45</v>
+      <c r="AT5">
+        <v>3.7</v>
+      </c>
+      <c r="AU5">
+        <v>0.32</v>
+      </c>
+      <c r="AV5">
+        <v>982.9400000000001</v>
+      </c>
+      <c r="AW5">
+        <v>180.58</v>
+      </c>
+      <c r="AX5">
+        <v>16.38</v>
+      </c>
+      <c r="AY5">
+        <v>3.01</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:51">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>53.55</v>
@@ -1109,36 +1469,96 @@
         <v>53.55</v>
       </c>
       <c r="Y6">
+        <v>3.26</v>
+      </c>
+      <c r="Z6">
+        <v>954.77</v>
+      </c>
+      <c r="AA6">
+        <v>15.91</v>
+      </c>
+      <c r="AB6">
+        <v>53.55</v>
+      </c>
+      <c r="AC6">
+        <v>4.03</v>
+      </c>
+      <c r="AD6">
+        <v>1150.92</v>
+      </c>
+      <c r="AE6">
+        <v>19.18</v>
+      </c>
+      <c r="AF6">
+        <v>53.55</v>
+      </c>
+      <c r="AG6">
+        <v>3.23</v>
+      </c>
+      <c r="AH6">
+        <v>1548.41</v>
+      </c>
+      <c r="AI6">
+        <v>25.81</v>
+      </c>
+      <c r="AJ6">
+        <v>53.55</v>
+      </c>
+      <c r="AK6">
+        <v>2.79</v>
+      </c>
+      <c r="AL6">
+        <v>1787.92</v>
+      </c>
+      <c r="AM6">
+        <v>29.8</v>
+      </c>
+      <c r="AN6">
+        <v>53.55</v>
+      </c>
+      <c r="AO6">
+        <v>2.83</v>
+      </c>
+      <c r="AP6">
+        <v>1426.46</v>
+      </c>
+      <c r="AQ6">
+        <v>23.77</v>
+      </c>
+      <c r="AR6">
+        <v>53.55</v>
+      </c>
+      <c r="AS6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>3.25</v>
-      </c>
-      <c r="AA6">
-        <v>0.3</v>
-      </c>
-      <c r="AB6">
-        <v>1661.83</v>
-      </c>
-      <c r="AC6">
-        <v>324.55</v>
-      </c>
-      <c r="AD6">
-        <v>27.7</v>
-      </c>
-      <c r="AE6">
-        <v>5.41</v>
+      <c r="AT6">
+        <v>3.24</v>
+      </c>
+      <c r="AU6">
+        <v>0.39</v>
+      </c>
+      <c r="AV6">
+        <v>1517.76</v>
+      </c>
+      <c r="AW6">
+        <v>343.01</v>
+      </c>
+      <c r="AX6">
+        <v>25.3</v>
+      </c>
+      <c r="AY6">
+        <v>5.72</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:51">
       <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>67.33</v>
@@ -1204,36 +1624,96 @@
         <v>67.33</v>
       </c>
       <c r="Y7">
+        <v>3.48</v>
+      </c>
+      <c r="Z7">
+        <v>1187.05</v>
+      </c>
+      <c r="AA7">
+        <v>19.78</v>
+      </c>
+      <c r="AB7">
+        <v>67.33</v>
+      </c>
+      <c r="AC7">
+        <v>3.33</v>
+      </c>
+      <c r="AD7">
+        <v>1221.03</v>
+      </c>
+      <c r="AE7">
+        <v>20.35</v>
+      </c>
+      <c r="AF7">
+        <v>67.33</v>
+      </c>
+      <c r="AG7">
+        <v>3.17</v>
+      </c>
+      <c r="AH7">
+        <v>1511.36</v>
+      </c>
+      <c r="AI7">
+        <v>25.19</v>
+      </c>
+      <c r="AJ7">
+        <v>67.33</v>
+      </c>
+      <c r="AK7">
+        <v>3.19</v>
+      </c>
+      <c r="AL7">
+        <v>1411.35</v>
+      </c>
+      <c r="AM7">
+        <v>23.52</v>
+      </c>
+      <c r="AN7">
+        <v>67.33</v>
+      </c>
+      <c r="AO7">
+        <v>2.96</v>
+      </c>
+      <c r="AP7">
+        <v>1268.12</v>
+      </c>
+      <c r="AQ7">
+        <v>21.14</v>
+      </c>
+      <c r="AR7">
+        <v>67.33</v>
+      </c>
+      <c r="AS7">
         <v>0</v>
       </c>
-      <c r="Z7">
+      <c r="AT7">
         <v>3.22</v>
       </c>
-      <c r="AA7">
-        <v>0.48</v>
-      </c>
-      <c r="AB7">
-        <v>1505.45</v>
-      </c>
-      <c r="AC7">
-        <v>372.93</v>
-      </c>
-      <c r="AD7">
-        <v>25.09</v>
-      </c>
-      <c r="AE7">
-        <v>6.22</v>
+      <c r="AU7">
+        <v>0.35</v>
+      </c>
+      <c r="AV7">
+        <v>1412.62</v>
+      </c>
+      <c r="AW7">
+        <v>282.37</v>
+      </c>
+      <c r="AX7">
+        <v>23.54</v>
+      </c>
+      <c r="AY7">
+        <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:51">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>62.67</v>
@@ -1299,36 +1779,96 @@
         <v>62.67</v>
       </c>
       <c r="Y8">
+        <v>3.42</v>
+      </c>
+      <c r="Z8">
+        <v>998.27</v>
+      </c>
+      <c r="AA8">
+        <v>16.64</v>
+      </c>
+      <c r="AB8">
+        <v>62.67</v>
+      </c>
+      <c r="AC8">
+        <v>3.26</v>
+      </c>
+      <c r="AD8">
+        <v>1099.15</v>
+      </c>
+      <c r="AE8">
+        <v>18.32</v>
+      </c>
+      <c r="AF8">
+        <v>62.67</v>
+      </c>
+      <c r="AG8">
+        <v>3.19</v>
+      </c>
+      <c r="AH8">
+        <v>1347.41</v>
+      </c>
+      <c r="AI8">
+        <v>22.46</v>
+      </c>
+      <c r="AJ8">
+        <v>62.67</v>
+      </c>
+      <c r="AK8">
+        <v>3.12</v>
+      </c>
+      <c r="AL8">
+        <v>1355.58</v>
+      </c>
+      <c r="AM8">
+        <v>22.59</v>
+      </c>
+      <c r="AN8">
+        <v>62.67</v>
+      </c>
+      <c r="AO8">
+        <v>2.78</v>
+      </c>
+      <c r="AP8">
+        <v>1123.94</v>
+      </c>
+      <c r="AQ8">
+        <v>18.73</v>
+      </c>
+      <c r="AR8">
+        <v>62.67</v>
+      </c>
+      <c r="AS8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>3.36</v>
-      </c>
-      <c r="AA8">
-        <v>0.46</v>
-      </c>
-      <c r="AB8">
-        <v>1363.35</v>
-      </c>
-      <c r="AC8">
-        <v>343.35</v>
-      </c>
-      <c r="AD8">
-        <v>22.72</v>
-      </c>
-      <c r="AE8">
-        <v>5.72</v>
+      <c r="AT8">
+        <v>3.26</v>
+      </c>
+      <c r="AU8">
+        <v>0.36</v>
+      </c>
+      <c r="AV8">
+        <v>1274.11</v>
+      </c>
+      <c r="AW8">
+        <v>269.29</v>
+      </c>
+      <c r="AX8">
+        <v>21.24</v>
+      </c>
+      <c r="AY8">
+        <v>4.49</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:51">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>53.3</v>
@@ -1394,36 +1934,96 @@
         <v>53.3</v>
       </c>
       <c r="Y9">
+        <v>3.2</v>
+      </c>
+      <c r="Z9">
+        <v>897.52</v>
+      </c>
+      <c r="AA9">
+        <v>14.96</v>
+      </c>
+      <c r="AB9">
+        <v>53.3</v>
+      </c>
+      <c r="AC9">
+        <v>3.28</v>
+      </c>
+      <c r="AD9">
+        <v>1321.05</v>
+      </c>
+      <c r="AE9">
+        <v>22.02</v>
+      </c>
+      <c r="AF9">
+        <v>53.3</v>
+      </c>
+      <c r="AG9">
+        <v>2.84</v>
+      </c>
+      <c r="AH9">
+        <v>1497.46</v>
+      </c>
+      <c r="AI9">
+        <v>24.96</v>
+      </c>
+      <c r="AJ9">
+        <v>53.3</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>1724.52</v>
+      </c>
+      <c r="AM9">
+        <v>28.74</v>
+      </c>
+      <c r="AN9">
+        <v>53.3</v>
+      </c>
+      <c r="AO9">
+        <v>3.06</v>
+      </c>
+      <c r="AP9">
+        <v>1273.69</v>
+      </c>
+      <c r="AQ9">
+        <v>21.23</v>
+      </c>
+      <c r="AR9">
+        <v>53.3</v>
+      </c>
+      <c r="AS9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>3.21</v>
-      </c>
-      <c r="AA9">
-        <v>0.38</v>
-      </c>
-      <c r="AB9">
-        <v>1729.36</v>
-      </c>
-      <c r="AC9">
-        <v>392.12</v>
-      </c>
-      <c r="AD9">
-        <v>28.82</v>
-      </c>
-      <c r="AE9">
-        <v>6.54</v>
+      <c r="AT9">
+        <v>3.14</v>
+      </c>
+      <c r="AU9">
+        <v>0.28</v>
+      </c>
+      <c r="AV9">
+        <v>1536.1</v>
+      </c>
+      <c r="AW9">
+        <v>388.97</v>
+      </c>
+      <c r="AX9">
+        <v>25.6</v>
+      </c>
+      <c r="AY9">
+        <v>6.48</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:51">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>64.89</v>
@@ -1489,36 +2089,96 @@
         <v>64.89</v>
       </c>
       <c r="Y10">
+        <v>3.22</v>
+      </c>
+      <c r="Z10">
+        <v>1067.6</v>
+      </c>
+      <c r="AA10">
+        <v>17.79</v>
+      </c>
+      <c r="AB10">
+        <v>64.89</v>
+      </c>
+      <c r="AC10">
+        <v>3.55</v>
+      </c>
+      <c r="AD10">
+        <v>1004.54</v>
+      </c>
+      <c r="AE10">
+        <v>16.74</v>
+      </c>
+      <c r="AF10">
+        <v>64.89</v>
+      </c>
+      <c r="AG10">
+        <v>3.05</v>
+      </c>
+      <c r="AH10">
+        <v>1316.28</v>
+      </c>
+      <c r="AI10">
+        <v>21.94</v>
+      </c>
+      <c r="AJ10">
+        <v>64.89</v>
+      </c>
+      <c r="AK10">
+        <v>3.3</v>
+      </c>
+      <c r="AL10">
+        <v>1341.78</v>
+      </c>
+      <c r="AM10">
+        <v>22.36</v>
+      </c>
+      <c r="AN10">
+        <v>64.89</v>
+      </c>
+      <c r="AO10">
+        <v>2.89</v>
+      </c>
+      <c r="AP10">
+        <v>1184.86</v>
+      </c>
+      <c r="AQ10">
+        <v>19.75</v>
+      </c>
+      <c r="AR10">
+        <v>64.89</v>
+      </c>
+      <c r="AS10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>3.07</v>
-      </c>
-      <c r="AA10">
-        <v>0.36</v>
-      </c>
-      <c r="AB10">
-        <v>1366.27</v>
-      </c>
-      <c r="AC10">
-        <v>264.57</v>
-      </c>
-      <c r="AD10">
-        <v>22.77</v>
-      </c>
-      <c r="AE10">
-        <v>4.41</v>
+      <c r="AT10">
+        <v>3.14</v>
+      </c>
+      <c r="AU10">
+        <v>0.3</v>
+      </c>
+      <c r="AV10">
+        <v>1274.64</v>
+      </c>
+      <c r="AW10">
+        <v>224.12</v>
+      </c>
+      <c r="AX10">
+        <v>21.24</v>
+      </c>
+      <c r="AY10">
+        <v>3.74</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:51">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>51.75</v>
@@ -1584,36 +2244,96 @@
         <v>51.75</v>
       </c>
       <c r="Y11">
+        <v>3.21</v>
+      </c>
+      <c r="Z11">
+        <v>849.39</v>
+      </c>
+      <c r="AA11">
+        <v>14.16</v>
+      </c>
+      <c r="AB11">
+        <v>51.75</v>
+      </c>
+      <c r="AC11">
+        <v>3.07</v>
+      </c>
+      <c r="AD11">
+        <v>1252.45</v>
+      </c>
+      <c r="AE11">
+        <v>20.87</v>
+      </c>
+      <c r="AF11">
+        <v>51.75</v>
+      </c>
+      <c r="AG11">
+        <v>2.94</v>
+      </c>
+      <c r="AH11">
+        <v>1561.38</v>
+      </c>
+      <c r="AI11">
+        <v>26.02</v>
+      </c>
+      <c r="AJ11">
+        <v>51.75</v>
+      </c>
+      <c r="AK11">
+        <v>3.12</v>
+      </c>
+      <c r="AL11">
+        <v>1488.08</v>
+      </c>
+      <c r="AM11">
+        <v>24.8</v>
+      </c>
+      <c r="AN11">
+        <v>51.75</v>
+      </c>
+      <c r="AO11">
+        <v>2.83</v>
+      </c>
+      <c r="AP11">
+        <v>1296.11</v>
+      </c>
+      <c r="AQ11">
+        <v>21.6</v>
+      </c>
+      <c r="AR11">
+        <v>51.75</v>
+      </c>
+      <c r="AS11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>3.35</v>
-      </c>
-      <c r="AA11">
-        <v>0.57</v>
-      </c>
-      <c r="AB11">
-        <v>1641.17</v>
-      </c>
-      <c r="AC11">
-        <v>380.77</v>
-      </c>
-      <c r="AD11">
-        <v>27.35</v>
-      </c>
-      <c r="AE11">
-        <v>6.35</v>
+      <c r="AT11">
+        <v>3.19</v>
+      </c>
+      <c r="AU11">
+        <v>0.43</v>
+      </c>
+      <c r="AV11">
+        <v>1465.33</v>
+      </c>
+      <c r="AW11">
+        <v>364.79</v>
+      </c>
+      <c r="AX11">
+        <v>24.42</v>
+      </c>
+      <c r="AY11">
+        <v>6.08</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:51">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>91.08</v>
@@ -1679,36 +2399,96 @@
         <v>91.08</v>
       </c>
       <c r="Y12">
+        <v>6.46</v>
+      </c>
+      <c r="Z12">
+        <v>260.86</v>
+      </c>
+      <c r="AA12">
+        <v>4.35</v>
+      </c>
+      <c r="AB12">
+        <v>91.08</v>
+      </c>
+      <c r="AC12">
+        <v>6.02</v>
+      </c>
+      <c r="AD12">
+        <v>393.7</v>
+      </c>
+      <c r="AE12">
+        <v>6.56</v>
+      </c>
+      <c r="AF12">
+        <v>91.08</v>
+      </c>
+      <c r="AG12">
+        <v>6.27</v>
+      </c>
+      <c r="AH12">
+        <v>398.11</v>
+      </c>
+      <c r="AI12">
+        <v>6.64</v>
+      </c>
+      <c r="AJ12">
+        <v>91.08</v>
+      </c>
+      <c r="AK12">
+        <v>5.75</v>
+      </c>
+      <c r="AL12">
+        <v>388.35</v>
+      </c>
+      <c r="AM12">
+        <v>6.47</v>
+      </c>
+      <c r="AN12">
+        <v>91.08</v>
+      </c>
+      <c r="AO12">
+        <v>6.24</v>
+      </c>
+      <c r="AP12">
+        <v>470.55</v>
+      </c>
+      <c r="AQ12">
+        <v>7.84</v>
+      </c>
+      <c r="AR12">
+        <v>91.08</v>
+      </c>
+      <c r="AS12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>5.97</v>
-      </c>
-      <c r="AA12">
-        <v>0.4</v>
-      </c>
-      <c r="AB12">
-        <v>378.85</v>
-      </c>
-      <c r="AC12">
-        <v>29.66</v>
-      </c>
-      <c r="AD12">
-        <v>6.31</v>
-      </c>
-      <c r="AE12">
-        <v>0.49</v>
+      <c r="AT12">
+        <v>6.06</v>
+      </c>
+      <c r="AU12">
+        <v>0.33</v>
+      </c>
+      <c r="AV12">
+        <v>380.58</v>
+      </c>
+      <c r="AW12">
+        <v>54.26</v>
+      </c>
+      <c r="AX12">
+        <v>6.34</v>
+      </c>
+      <c r="AY12">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:51">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>63.62</v>
@@ -1774,36 +2554,96 @@
         <v>63.62</v>
       </c>
       <c r="Y13">
+        <v>3.38</v>
+      </c>
+      <c r="Z13">
+        <v>790.34</v>
+      </c>
+      <c r="AA13">
+        <v>13.17</v>
+      </c>
+      <c r="AB13">
+        <v>63.62</v>
+      </c>
+      <c r="AC13">
+        <v>3.3</v>
+      </c>
+      <c r="AD13">
+        <v>1079.83</v>
+      </c>
+      <c r="AE13">
+        <v>18</v>
+      </c>
+      <c r="AF13">
+        <v>63.62</v>
+      </c>
+      <c r="AG13">
+        <v>3.06</v>
+      </c>
+      <c r="AH13">
+        <v>1481.75</v>
+      </c>
+      <c r="AI13">
+        <v>24.7</v>
+      </c>
+      <c r="AJ13">
+        <v>63.62</v>
+      </c>
+      <c r="AK13">
+        <v>2.93</v>
+      </c>
+      <c r="AL13">
+        <v>1360.37</v>
+      </c>
+      <c r="AM13">
+        <v>22.67</v>
+      </c>
+      <c r="AN13">
+        <v>63.62</v>
+      </c>
+      <c r="AO13">
+        <v>2.85</v>
+      </c>
+      <c r="AP13">
+        <v>1280.44</v>
+      </c>
+      <c r="AQ13">
+        <v>21.34</v>
+      </c>
+      <c r="AR13">
+        <v>63.62</v>
+      </c>
+      <c r="AS13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>3.15</v>
-      </c>
-      <c r="AA13">
-        <v>0.41</v>
-      </c>
-      <c r="AB13">
-        <v>1229.29</v>
-      </c>
-      <c r="AC13">
-        <v>210.26</v>
-      </c>
-      <c r="AD13">
-        <v>20.49</v>
-      </c>
-      <c r="AE13">
-        <v>3.5</v>
+      <c r="AT13">
+        <v>3.13</v>
+      </c>
+      <c r="AU13">
+        <v>0.32</v>
+      </c>
+      <c r="AV13">
+        <v>1213.92</v>
+      </c>
+      <c r="AW13">
+        <v>229.26</v>
+      </c>
+      <c r="AX13">
+        <v>20.23</v>
+      </c>
+      <c r="AY13">
+        <v>3.82</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:51">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>61.79</v>
@@ -1869,36 +2709,96 @@
         <v>61.79</v>
       </c>
       <c r="Y14">
+        <v>3.37</v>
+      </c>
+      <c r="Z14">
+        <v>809.38</v>
+      </c>
+      <c r="AA14">
+        <v>13.49</v>
+      </c>
+      <c r="AB14">
+        <v>61.79</v>
+      </c>
+      <c r="AC14">
+        <v>3.38</v>
+      </c>
+      <c r="AD14">
+        <v>1119.87</v>
+      </c>
+      <c r="AE14">
+        <v>18.66</v>
+      </c>
+      <c r="AF14">
+        <v>61.79</v>
+      </c>
+      <c r="AG14">
+        <v>3.14</v>
+      </c>
+      <c r="AH14">
+        <v>1338.8</v>
+      </c>
+      <c r="AI14">
+        <v>22.31</v>
+      </c>
+      <c r="AJ14">
+        <v>61.79</v>
+      </c>
+      <c r="AK14">
+        <v>3.29</v>
+      </c>
+      <c r="AL14">
+        <v>1453.96</v>
+      </c>
+      <c r="AM14">
+        <v>24.23</v>
+      </c>
+      <c r="AN14">
+        <v>61.79</v>
+      </c>
+      <c r="AO14">
+        <v>3.04</v>
+      </c>
+      <c r="AP14">
+        <v>1203.5</v>
+      </c>
+      <c r="AQ14">
+        <v>20.06</v>
+      </c>
+      <c r="AR14">
+        <v>61.79</v>
+      </c>
+      <c r="AS14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>3.2</v>
-      </c>
-      <c r="AA14">
-        <v>0.48</v>
-      </c>
-      <c r="AB14">
-        <v>1271.36</v>
-      </c>
-      <c r="AC14">
-        <v>284.47</v>
-      </c>
-      <c r="AD14">
-        <v>21.19</v>
-      </c>
-      <c r="AE14">
-        <v>4.74</v>
+      <c r="AT14">
+        <v>3.22</v>
+      </c>
+      <c r="AU14">
+        <v>0.34</v>
+      </c>
+      <c r="AV14">
+        <v>1228.23</v>
+      </c>
+      <c r="AW14">
+        <v>254.73</v>
+      </c>
+      <c r="AX14">
+        <v>20.47</v>
+      </c>
+      <c r="AY14">
+        <v>4.25</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:51">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>53.87</v>
@@ -1964,36 +2864,96 @@
         <v>53.87</v>
       </c>
       <c r="Y15">
+        <v>3.32</v>
+      </c>
+      <c r="Z15">
+        <v>931.64</v>
+      </c>
+      <c r="AA15">
+        <v>15.53</v>
+      </c>
+      <c r="AB15">
+        <v>53.87</v>
+      </c>
+      <c r="AC15">
+        <v>3.11</v>
+      </c>
+      <c r="AD15">
+        <v>1315.56</v>
+      </c>
+      <c r="AE15">
+        <v>21.93</v>
+      </c>
+      <c r="AF15">
+        <v>53.87</v>
+      </c>
+      <c r="AG15">
+        <v>3.41</v>
+      </c>
+      <c r="AH15">
+        <v>1478.17</v>
+      </c>
+      <c r="AI15">
+        <v>24.64</v>
+      </c>
+      <c r="AJ15">
+        <v>53.87</v>
+      </c>
+      <c r="AK15">
+        <v>3.15</v>
+      </c>
+      <c r="AL15">
+        <v>1571.37</v>
+      </c>
+      <c r="AM15">
+        <v>26.19</v>
+      </c>
+      <c r="AN15">
+        <v>53.87</v>
+      </c>
+      <c r="AO15">
+        <v>2.73</v>
+      </c>
+      <c r="AP15">
+        <v>1393.89</v>
+      </c>
+      <c r="AQ15">
+        <v>23.23</v>
+      </c>
+      <c r="AR15">
+        <v>53.87</v>
+      </c>
+      <c r="AS15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>3.05</v>
-      </c>
-      <c r="AA15">
-        <v>0.44</v>
-      </c>
-      <c r="AB15">
-        <v>1609.98</v>
-      </c>
-      <c r="AC15">
-        <v>363.5</v>
-      </c>
-      <c r="AD15">
-        <v>26.83</v>
-      </c>
-      <c r="AE15">
-        <v>6.06</v>
+      <c r="AT15">
+        <v>3.1</v>
+      </c>
+      <c r="AU15">
+        <v>0.34</v>
+      </c>
+      <c r="AV15">
+        <v>1474.05</v>
+      </c>
+      <c r="AW15">
+        <v>325.95</v>
+      </c>
+      <c r="AX15">
+        <v>24.57</v>
+      </c>
+      <c r="AY15">
+        <v>5.43</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:51">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -2059,36 +3019,96 @@
         <v>0.1</v>
       </c>
       <c r="Y16">
+        <v>2.98</v>
+      </c>
+      <c r="Z16">
+        <v>1532.84</v>
+      </c>
+      <c r="AA16">
+        <v>25.55</v>
+      </c>
+      <c r="AB16">
+        <v>0.1</v>
+      </c>
+      <c r="AC16">
+        <v>3.81</v>
+      </c>
+      <c r="AD16">
+        <v>1949.61</v>
+      </c>
+      <c r="AE16">
+        <v>32.49</v>
+      </c>
+      <c r="AF16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16">
+        <v>3.27</v>
+      </c>
+      <c r="AH16">
+        <v>2086.27</v>
+      </c>
+      <c r="AI16">
+        <v>34.77</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1</v>
+      </c>
+      <c r="AK16">
+        <v>2.65</v>
+      </c>
+      <c r="AL16">
+        <v>2569.96</v>
+      </c>
+      <c r="AM16">
+        <v>42.83</v>
+      </c>
+      <c r="AN16">
+        <v>0.1</v>
+      </c>
+      <c r="AO16">
+        <v>3.07</v>
+      </c>
+      <c r="AP16">
+        <v>2209.49</v>
+      </c>
+      <c r="AQ16">
+        <v>36.82</v>
+      </c>
+      <c r="AR16">
+        <v>0.1</v>
+      </c>
+      <c r="AS16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AA16">
+      <c r="AT16">
+        <v>3.08</v>
+      </c>
+      <c r="AU16">
         <v>0.4</v>
       </c>
-      <c r="AB16">
-        <v>2540.3</v>
-      </c>
-      <c r="AC16">
-        <v>686.67</v>
-      </c>
-      <c r="AD16">
-        <v>42.34</v>
-      </c>
-      <c r="AE16">
-        <v>11.44</v>
+      <c r="AV16">
+        <v>2304.97</v>
+      </c>
+      <c r="AW16">
+        <v>578.5599999999999</v>
+      </c>
+      <c r="AX16">
+        <v>38.42</v>
+      </c>
+      <c r="AY16">
+        <v>9.640000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:51">
       <c r="A17" s="1">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -2154,36 +3174,96 @@
         <v>0.2</v>
       </c>
       <c r="Y17">
+        <v>3.17</v>
+      </c>
+      <c r="Z17">
+        <v>1390.15</v>
+      </c>
+      <c r="AA17">
+        <v>23.17</v>
+      </c>
+      <c r="AB17">
+        <v>0.2</v>
+      </c>
+      <c r="AC17">
+        <v>2.82</v>
+      </c>
+      <c r="AD17">
+        <v>1766.32</v>
+      </c>
+      <c r="AE17">
+        <v>29.44</v>
+      </c>
+      <c r="AF17">
+        <v>0.2</v>
+      </c>
+      <c r="AG17">
+        <v>2.8</v>
+      </c>
+      <c r="AH17">
+        <v>2046.17</v>
+      </c>
+      <c r="AI17">
+        <v>34.1</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2</v>
+      </c>
+      <c r="AK17">
+        <v>3.16</v>
+      </c>
+      <c r="AL17">
+        <v>2344.85</v>
+      </c>
+      <c r="AM17">
+        <v>39.08</v>
+      </c>
+      <c r="AN17">
+        <v>0.2</v>
+      </c>
+      <c r="AO17">
+        <v>3.17</v>
+      </c>
+      <c r="AP17">
+        <v>2092.99</v>
+      </c>
+      <c r="AQ17">
+        <v>34.88</v>
+      </c>
+      <c r="AR17">
+        <v>0.2</v>
+      </c>
+      <c r="AS17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>3.34</v>
-      </c>
-      <c r="AA17">
-        <v>0.63</v>
-      </c>
-      <c r="AB17">
-        <v>2297.96</v>
-      </c>
-      <c r="AC17">
-        <v>617.26</v>
-      </c>
-      <c r="AD17">
-        <v>38.3</v>
-      </c>
-      <c r="AE17">
-        <v>10.29</v>
+      <c r="AT17">
+        <v>3.18</v>
+      </c>
+      <c r="AU17">
+        <v>0.47</v>
+      </c>
+      <c r="AV17">
+        <v>2113.03</v>
+      </c>
+      <c r="AW17">
+        <v>516.01</v>
+      </c>
+      <c r="AX17">
+        <v>35.22</v>
+      </c>
+      <c r="AY17">
+        <v>8.6</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:51">
       <c r="A18" s="1">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -2249,36 +3329,96 @@
         <v>0.3</v>
       </c>
       <c r="Y18">
+        <v>3.12</v>
+      </c>
+      <c r="Z18">
+        <v>1194.31</v>
+      </c>
+      <c r="AA18">
+        <v>19.91</v>
+      </c>
+      <c r="AB18">
+        <v>0.3</v>
+      </c>
+      <c r="AC18">
+        <v>3.11</v>
+      </c>
+      <c r="AD18">
+        <v>1725.74</v>
+      </c>
+      <c r="AE18">
+        <v>28.76</v>
+      </c>
+      <c r="AF18">
+        <v>0.3</v>
+      </c>
+      <c r="AG18">
+        <v>2.98</v>
+      </c>
+      <c r="AH18">
+        <v>1689.84</v>
+      </c>
+      <c r="AI18">
+        <v>28.16</v>
+      </c>
+      <c r="AJ18">
+        <v>0.3</v>
+      </c>
+      <c r="AK18">
+        <v>3.39</v>
+      </c>
+      <c r="AL18">
+        <v>2103.95</v>
+      </c>
+      <c r="AM18">
+        <v>35.07</v>
+      </c>
+      <c r="AN18">
+        <v>0.3</v>
+      </c>
+      <c r="AO18">
+        <v>3.01</v>
+      </c>
+      <c r="AP18">
+        <v>1771.57</v>
+      </c>
+      <c r="AQ18">
+        <v>29.53</v>
+      </c>
+      <c r="AR18">
+        <v>0.3</v>
+      </c>
+      <c r="AS18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>3.31</v>
-      </c>
-      <c r="AA18">
-        <v>0.48</v>
-      </c>
-      <c r="AB18">
-        <v>2167.49</v>
-      </c>
-      <c r="AC18">
-        <v>431.36</v>
-      </c>
-      <c r="AD18">
-        <v>36.12</v>
-      </c>
-      <c r="AE18">
-        <v>7.19</v>
+      <c r="AT18">
+        <v>3.22</v>
+      </c>
+      <c r="AU18">
+        <v>0.35</v>
+      </c>
+      <c r="AV18">
+        <v>1932.28</v>
+      </c>
+      <c r="AW18">
+        <v>437.45</v>
+      </c>
+      <c r="AX18">
+        <v>32.2</v>
+      </c>
+      <c r="AY18">
+        <v>7.29</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:51">
       <c r="A19" s="1">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>0.4</v>
@@ -2344,36 +3484,96 @@
         <v>0.4</v>
       </c>
       <c r="Y19">
+        <v>3.44</v>
+      </c>
+      <c r="Z19">
+        <v>1178.78</v>
+      </c>
+      <c r="AA19">
+        <v>19.65</v>
+      </c>
+      <c r="AB19">
+        <v>0.4</v>
+      </c>
+      <c r="AC19">
+        <v>3.06</v>
+      </c>
+      <c r="AD19">
+        <v>1429.16</v>
+      </c>
+      <c r="AE19">
+        <v>23.82</v>
+      </c>
+      <c r="AF19">
+        <v>0.4</v>
+      </c>
+      <c r="AG19">
+        <v>3.01</v>
+      </c>
+      <c r="AH19">
+        <v>1705.42</v>
+      </c>
+      <c r="AI19">
+        <v>28.42</v>
+      </c>
+      <c r="AJ19">
+        <v>0.4</v>
+      </c>
+      <c r="AK19">
+        <v>2.77</v>
+      </c>
+      <c r="AL19">
+        <v>1853.88</v>
+      </c>
+      <c r="AM19">
+        <v>30.9</v>
+      </c>
+      <c r="AN19">
+        <v>0.4</v>
+      </c>
+      <c r="AO19">
+        <v>2.88</v>
+      </c>
+      <c r="AP19">
+        <v>1558.61</v>
+      </c>
+      <c r="AQ19">
+        <v>25.98</v>
+      </c>
+      <c r="AR19">
+        <v>0.4</v>
+      </c>
+      <c r="AS19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>3.14</v>
-      </c>
-      <c r="AA19">
-        <v>0.5</v>
-      </c>
-      <c r="AB19">
-        <v>1891.72</v>
-      </c>
-      <c r="AC19">
-        <v>509.72</v>
-      </c>
-      <c r="AD19">
-        <v>31.53</v>
-      </c>
-      <c r="AE19">
-        <v>8.5</v>
+      <c r="AT19">
+        <v>3.08</v>
+      </c>
+      <c r="AU19">
+        <v>0.38</v>
+      </c>
+      <c r="AV19">
+        <v>1718.44</v>
+      </c>
+      <c r="AW19">
+        <v>422.74</v>
+      </c>
+      <c r="AX19">
+        <v>28.64</v>
+      </c>
+      <c r="AY19">
+        <v>7.05</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:51">
       <c r="A20" s="1">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2439,36 +3639,96 @@
         <v>0.5</v>
       </c>
       <c r="Y20">
+        <v>3.31</v>
+      </c>
+      <c r="Z20">
+        <v>941.02</v>
+      </c>
+      <c r="AA20">
+        <v>15.68</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>2.98</v>
+      </c>
+      <c r="AD20">
+        <v>1358.83</v>
+      </c>
+      <c r="AE20">
+        <v>22.65</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>3.04</v>
+      </c>
+      <c r="AH20">
+        <v>1588.37</v>
+      </c>
+      <c r="AI20">
+        <v>26.47</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5</v>
+      </c>
+      <c r="AK20">
+        <v>3.16</v>
+      </c>
+      <c r="AL20">
+        <v>1728.08</v>
+      </c>
+      <c r="AM20">
+        <v>28.8</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
+      <c r="AO20">
+        <v>3.23</v>
+      </c>
+      <c r="AP20">
+        <v>1468.17</v>
+      </c>
+      <c r="AQ20">
+        <v>24.47</v>
+      </c>
+      <c r="AR20">
+        <v>0.5</v>
+      </c>
+      <c r="AS20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>3.08</v>
-      </c>
-      <c r="AA20">
-        <v>0.43</v>
-      </c>
-      <c r="AB20">
-        <v>1667.5</v>
-      </c>
-      <c r="AC20">
-        <v>397.6</v>
-      </c>
-      <c r="AD20">
-        <v>27.79</v>
-      </c>
-      <c r="AE20">
-        <v>6.63</v>
+      <c r="AT20">
+        <v>3.11</v>
+      </c>
+      <c r="AU20">
+        <v>0.3</v>
+      </c>
+      <c r="AV20">
+        <v>1542.2</v>
+      </c>
+      <c r="AW20">
+        <v>357.16</v>
+      </c>
+      <c r="AX20">
+        <v>25.7</v>
+      </c>
+      <c r="AY20">
+        <v>5.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:51">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -2534,36 +3794,96 @@
         <v>0.6</v>
       </c>
       <c r="Y21">
+        <v>3.09</v>
+      </c>
+      <c r="Z21">
+        <v>815.79</v>
+      </c>
+      <c r="AA21">
+        <v>13.6</v>
+      </c>
+      <c r="AB21">
+        <v>0.6</v>
+      </c>
+      <c r="AC21">
+        <v>4.92</v>
+      </c>
+      <c r="AD21">
+        <v>1207.36</v>
+      </c>
+      <c r="AE21">
+        <v>20.12</v>
+      </c>
+      <c r="AF21">
+        <v>0.6</v>
+      </c>
+      <c r="AG21">
+        <v>2.99</v>
+      </c>
+      <c r="AH21">
+        <v>1408.54</v>
+      </c>
+      <c r="AI21">
+        <v>23.48</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6</v>
+      </c>
+      <c r="AK21">
+        <v>3.39</v>
+      </c>
+      <c r="AL21">
+        <v>1620.3</v>
+      </c>
+      <c r="AM21">
+        <v>27.01</v>
+      </c>
+      <c r="AN21">
+        <v>0.6</v>
+      </c>
+      <c r="AO21">
+        <v>2.89</v>
+      </c>
+      <c r="AP21">
+        <v>1280.88</v>
+      </c>
+      <c r="AQ21">
+        <v>21.35</v>
+      </c>
+      <c r="AR21">
+        <v>0.6</v>
+      </c>
+      <c r="AS21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>3.25</v>
-      </c>
-      <c r="AA21">
-        <v>0.41</v>
-      </c>
-      <c r="AB21">
-        <v>1500</v>
-      </c>
-      <c r="AC21">
-        <v>428.08</v>
-      </c>
-      <c r="AD21">
-        <v>25</v>
-      </c>
-      <c r="AE21">
-        <v>7.13</v>
+      <c r="AT21">
+        <v>3.36</v>
+      </c>
+      <c r="AU21">
+        <v>0.63</v>
+      </c>
+      <c r="AV21">
+        <v>1383.29</v>
+      </c>
+      <c r="AW21">
+        <v>368.39</v>
+      </c>
+      <c r="AX21">
+        <v>23.05</v>
+      </c>
+      <c r="AY21">
+        <v>6.14</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:51">
       <c r="A22" s="1">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>0.7</v>
@@ -2629,36 +3949,96 @@
         <v>0.7</v>
       </c>
       <c r="Y22">
+        <v>3.41</v>
+      </c>
+      <c r="Z22">
+        <v>732.03</v>
+      </c>
+      <c r="AA22">
+        <v>12.2</v>
+      </c>
+      <c r="AB22">
+        <v>0.7</v>
+      </c>
+      <c r="AC22">
+        <v>3.26</v>
+      </c>
+      <c r="AD22">
+        <v>1038.46</v>
+      </c>
+      <c r="AE22">
+        <v>17.31</v>
+      </c>
+      <c r="AF22">
+        <v>0.7</v>
+      </c>
+      <c r="AG22">
+        <v>3.35</v>
+      </c>
+      <c r="AH22">
+        <v>1033.73</v>
+      </c>
+      <c r="AI22">
+        <v>17.23</v>
+      </c>
+      <c r="AJ22">
+        <v>0.7</v>
+      </c>
+      <c r="AK22">
+        <v>3.46</v>
+      </c>
+      <c r="AL22">
+        <v>1176.33</v>
+      </c>
+      <c r="AM22">
+        <v>19.61</v>
+      </c>
+      <c r="AN22">
+        <v>0.7</v>
+      </c>
+      <c r="AO22">
+        <v>3.14</v>
+      </c>
+      <c r="AP22">
+        <v>906.86</v>
+      </c>
+      <c r="AQ22">
+        <v>15.11</v>
+      </c>
+      <c r="AR22">
+        <v>0.7</v>
+      </c>
+      <c r="AS22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>3.48</v>
-      </c>
-      <c r="AA22">
-        <v>0.46</v>
-      </c>
-      <c r="AB22">
-        <v>1206.31</v>
-      </c>
-      <c r="AC22">
-        <v>286.48</v>
-      </c>
-      <c r="AD22">
-        <v>20.11</v>
-      </c>
-      <c r="AE22">
-        <v>4.77</v>
+      <c r="AT22">
+        <v>3.4</v>
+      </c>
+      <c r="AU22">
+        <v>0.33</v>
+      </c>
+      <c r="AV22">
+        <v>1091.9</v>
+      </c>
+      <c r="AW22">
+        <v>251.85</v>
+      </c>
+      <c r="AX22">
+        <v>18.2</v>
+      </c>
+      <c r="AY22">
+        <v>4.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:51">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>0.8</v>
@@ -2724,36 +4104,96 @@
         <v>0.8</v>
       </c>
       <c r="Y23">
+        <v>4.16</v>
+      </c>
+      <c r="Z23">
+        <v>512.85</v>
+      </c>
+      <c r="AA23">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AB23">
+        <v>0.8</v>
+      </c>
+      <c r="AC23">
+        <v>3.98</v>
+      </c>
+      <c r="AD23">
+        <v>739.6900000000001</v>
+      </c>
+      <c r="AE23">
+        <v>12.33</v>
+      </c>
+      <c r="AF23">
+        <v>0.8</v>
+      </c>
+      <c r="AG23">
+        <v>4.05</v>
+      </c>
+      <c r="AH23">
+        <v>762.71</v>
+      </c>
+      <c r="AI23">
+        <v>12.71</v>
+      </c>
+      <c r="AJ23">
+        <v>0.8</v>
+      </c>
+      <c r="AK23">
+        <v>3.71</v>
+      </c>
+      <c r="AL23">
+        <v>920.64</v>
+      </c>
+      <c r="AM23">
+        <v>15.34</v>
+      </c>
+      <c r="AN23">
+        <v>0.8</v>
+      </c>
+      <c r="AO23">
+        <v>3.6</v>
+      </c>
+      <c r="AP23">
+        <v>777.25</v>
+      </c>
+      <c r="AQ23">
+        <v>12.95</v>
+      </c>
+      <c r="AR23">
+        <v>0.8</v>
+      </c>
+      <c r="AS23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>4.21</v>
-      </c>
-      <c r="AA23">
-        <v>0.58</v>
-      </c>
-      <c r="AB23">
-        <v>770.7</v>
-      </c>
-      <c r="AC23">
-        <v>92.7</v>
-      </c>
-      <c r="AD23">
-        <v>12.85</v>
-      </c>
-      <c r="AE23">
-        <v>1.54</v>
+      <c r="AT23">
+        <v>4.06</v>
+      </c>
+      <c r="AU23">
+        <v>0.45</v>
+      </c>
+      <c r="AV23">
+        <v>756.66</v>
+      </c>
+      <c r="AW23">
+        <v>116.64</v>
+      </c>
+      <c r="AX23">
+        <v>12.61</v>
+      </c>
+      <c r="AY23">
+        <v>1.94</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:51">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>0.9</v>
@@ -2819,36 +4259,96 @@
         <v>0.9</v>
       </c>
       <c r="Y24">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>302.47</v>
+      </c>
+      <c r="AA24">
+        <v>5.04</v>
+      </c>
+      <c r="AB24">
+        <v>0.9</v>
+      </c>
+      <c r="AC24">
+        <v>6.2</v>
+      </c>
+      <c r="AD24">
+        <v>484.72</v>
+      </c>
+      <c r="AE24">
+        <v>8.08</v>
+      </c>
+      <c r="AF24">
+        <v>0.9</v>
+      </c>
+      <c r="AG24">
+        <v>8.5</v>
+      </c>
+      <c r="AH24">
+        <v>452.33</v>
+      </c>
+      <c r="AI24">
+        <v>7.54</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9</v>
+      </c>
+      <c r="AK24">
+        <v>6.76</v>
+      </c>
+      <c r="AL24">
+        <v>462.13</v>
+      </c>
+      <c r="AM24">
+        <v>7.7</v>
+      </c>
+      <c r="AN24">
+        <v>0.9</v>
+      </c>
+      <c r="AO24">
+        <v>5.55</v>
+      </c>
+      <c r="AP24">
+        <v>449.42</v>
+      </c>
+      <c r="AQ24">
+        <v>7.49</v>
+      </c>
+      <c r="AR24">
+        <v>0.9</v>
+      </c>
+      <c r="AS24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>6.16</v>
-      </c>
-      <c r="AA24">
-        <v>0.5</v>
-      </c>
-      <c r="AB24">
-        <v>441.51</v>
-      </c>
-      <c r="AC24">
-        <v>49.39</v>
-      </c>
-      <c r="AD24">
-        <v>7.36</v>
-      </c>
-      <c r="AE24">
-        <v>0.82</v>
+      <c r="AT24">
+        <v>6.63</v>
+      </c>
+      <c r="AU24">
+        <v>1.09</v>
+      </c>
+      <c r="AV24">
+        <v>435.86</v>
+      </c>
+      <c r="AW24">
+        <v>58.92</v>
+      </c>
+      <c r="AX24">
+        <v>7.26</v>
+      </c>
+      <c r="AY24">
+        <v>0.98</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:51">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2914,36 +4414,96 @@
         <v>0</v>
       </c>
       <c r="Y25">
+        <v>2.79</v>
+      </c>
+      <c r="Z25">
+        <v>1842.94</v>
+      </c>
+      <c r="AA25">
+        <v>30.72</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>3.42</v>
-      </c>
-      <c r="AA25">
-        <v>0.58</v>
-      </c>
-      <c r="AB25">
-        <v>2605.85</v>
-      </c>
       <c r="AC25">
-        <v>684.83</v>
+        <v>3.78</v>
       </c>
       <c r="AD25">
-        <v>43.43</v>
+        <v>2069.91</v>
       </c>
       <c r="AE25">
-        <v>11.41</v>
+        <v>34.5</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>4.38</v>
+      </c>
+      <c r="AH25">
+        <v>2471.72</v>
+      </c>
+      <c r="AI25">
+        <v>41.2</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>2.79</v>
+      </c>
+      <c r="AL25">
+        <v>2691.84</v>
+      </c>
+      <c r="AM25">
+        <v>44.86</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>2.93</v>
+      </c>
+      <c r="AP25">
+        <v>2511.57</v>
+      </c>
+      <c r="AQ25">
+        <v>41.86</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>3.38</v>
+      </c>
+      <c r="AU25">
+        <v>0.62</v>
+      </c>
+      <c r="AV25">
+        <v>2461.72</v>
+      </c>
+      <c r="AW25">
+        <v>534.5599999999999</v>
+      </c>
+      <c r="AX25">
+        <v>41.03</v>
+      </c>
+      <c r="AY25">
+        <v>8.91</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:51">
       <c r="A26" s="1">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>60.58</v>
@@ -3009,36 +4569,96 @@
         <v>60.58</v>
       </c>
       <c r="Y26">
+        <v>3.1</v>
+      </c>
+      <c r="Z26">
+        <v>928.9299999999999</v>
+      </c>
+      <c r="AA26">
+        <v>15.48</v>
+      </c>
+      <c r="AB26">
+        <v>60.58</v>
+      </c>
+      <c r="AC26">
+        <v>3.33</v>
+      </c>
+      <c r="AD26">
+        <v>1166.47</v>
+      </c>
+      <c r="AE26">
+        <v>19.44</v>
+      </c>
+      <c r="AF26">
+        <v>60.58</v>
+      </c>
+      <c r="AG26">
+        <v>2.96</v>
+      </c>
+      <c r="AH26">
+        <v>1509.97</v>
+      </c>
+      <c r="AI26">
+        <v>25.17</v>
+      </c>
+      <c r="AJ26">
+        <v>60.58</v>
+      </c>
+      <c r="AK26">
+        <v>2.76</v>
+      </c>
+      <c r="AL26">
+        <v>1448.02</v>
+      </c>
+      <c r="AM26">
+        <v>24.13</v>
+      </c>
+      <c r="AN26">
+        <v>60.58</v>
+      </c>
+      <c r="AO26">
+        <v>2.73</v>
+      </c>
+      <c r="AP26">
+        <v>1273.9</v>
+      </c>
+      <c r="AQ26">
+        <v>21.23</v>
+      </c>
+      <c r="AR26">
+        <v>60.58</v>
+      </c>
+      <c r="AS26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>3.03</v>
-      </c>
-      <c r="AA26">
-        <v>0.42</v>
-      </c>
-      <c r="AB26">
-        <v>1332.92</v>
-      </c>
-      <c r="AC26">
-        <v>308.91</v>
-      </c>
-      <c r="AD26">
-        <v>22.22</v>
-      </c>
-      <c r="AE26">
-        <v>5.15</v>
+      <c r="AT26">
+        <v>3.01</v>
+      </c>
+      <c r="AU26">
+        <v>0.32</v>
+      </c>
+      <c r="AV26">
+        <v>1299.19</v>
+      </c>
+      <c r="AW26">
+        <v>260.2</v>
+      </c>
+      <c r="AX26">
+        <v>21.65</v>
+      </c>
+      <c r="AY26">
+        <v>4.34</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:51">
       <c r="A27" s="1">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>53.59</v>
@@ -3104,36 +4724,96 @@
         <v>53.59</v>
       </c>
       <c r="Y27">
+        <v>3.16</v>
+      </c>
+      <c r="Z27">
+        <v>958.22</v>
+      </c>
+      <c r="AA27">
+        <v>15.97</v>
+      </c>
+      <c r="AB27">
+        <v>53.59</v>
+      </c>
+      <c r="AC27">
+        <v>3.98</v>
+      </c>
+      <c r="AD27">
+        <v>1291.29</v>
+      </c>
+      <c r="AE27">
+        <v>21.52</v>
+      </c>
+      <c r="AF27">
+        <v>53.59</v>
+      </c>
+      <c r="AG27">
+        <v>3.26</v>
+      </c>
+      <c r="AH27">
+        <v>1450.17</v>
+      </c>
+      <c r="AI27">
+        <v>24.17</v>
+      </c>
+      <c r="AJ27">
+        <v>53.59</v>
+      </c>
+      <c r="AK27">
+        <v>3.34</v>
+      </c>
+      <c r="AL27">
+        <v>1615.09</v>
+      </c>
+      <c r="AM27">
+        <v>26.92</v>
+      </c>
+      <c r="AN27">
+        <v>53.59</v>
+      </c>
+      <c r="AO27">
+        <v>2.73</v>
+      </c>
+      <c r="AP27">
+        <v>1280.19</v>
+      </c>
+      <c r="AQ27">
+        <v>21.34</v>
+      </c>
+      <c r="AR27">
+        <v>53.59</v>
+      </c>
+      <c r="AS27">
         <v>0</v>
       </c>
-      <c r="Z27">
-        <v>3.27</v>
-      </c>
-      <c r="AA27">
-        <v>0.3</v>
-      </c>
-      <c r="AB27">
-        <v>1616.28</v>
-      </c>
-      <c r="AC27">
-        <v>330.23</v>
-      </c>
-      <c r="AD27">
-        <v>26.94</v>
-      </c>
-      <c r="AE27">
-        <v>5.5</v>
+      <c r="AT27">
+        <v>3.28</v>
+      </c>
+      <c r="AU27">
+        <v>0.36</v>
+      </c>
+      <c r="AV27">
+        <v>1467.64</v>
+      </c>
+      <c r="AW27">
+        <v>315.26</v>
+      </c>
+      <c r="AX27">
+        <v>24.46</v>
+      </c>
+      <c r="AY27">
+        <v>5.25</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:51">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>60.3</v>
@@ -3199,36 +4879,96 @@
         <v>60.3</v>
       </c>
       <c r="Y28">
+        <v>3.15</v>
+      </c>
+      <c r="Z28">
+        <v>892.33</v>
+      </c>
+      <c r="AA28">
+        <v>14.87</v>
+      </c>
+      <c r="AB28">
+        <v>60.3</v>
+      </c>
+      <c r="AC28">
+        <v>3.16</v>
+      </c>
+      <c r="AD28">
+        <v>1127.69</v>
+      </c>
+      <c r="AE28">
+        <v>18.79</v>
+      </c>
+      <c r="AF28">
+        <v>60.3</v>
+      </c>
+      <c r="AG28">
+        <v>3.02</v>
+      </c>
+      <c r="AH28">
+        <v>1498.18</v>
+      </c>
+      <c r="AI28">
+        <v>24.97</v>
+      </c>
+      <c r="AJ28">
+        <v>60.3</v>
+      </c>
+      <c r="AK28">
+        <v>2.95</v>
+      </c>
+      <c r="AL28">
+        <v>1551.75</v>
+      </c>
+      <c r="AM28">
+        <v>25.86</v>
+      </c>
+      <c r="AN28">
+        <v>60.3</v>
+      </c>
+      <c r="AO28">
+        <v>2.84</v>
+      </c>
+      <c r="AP28">
+        <v>1116.98</v>
+      </c>
+      <c r="AQ28">
+        <v>18.62</v>
+      </c>
+      <c r="AR28">
+        <v>60.3</v>
+      </c>
+      <c r="AS28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>3.17</v>
-      </c>
-      <c r="AA28">
-        <v>0.4</v>
-      </c>
-      <c r="AB28">
-        <v>1395</v>
-      </c>
-      <c r="AC28">
-        <v>291.55</v>
-      </c>
-      <c r="AD28">
-        <v>23.25</v>
-      </c>
-      <c r="AE28">
-        <v>4.86</v>
+      <c r="AT28">
+        <v>3.1</v>
+      </c>
+      <c r="AU28">
+        <v>0.29</v>
+      </c>
+      <c r="AV28">
+        <v>1316.2</v>
+      </c>
+      <c r="AW28">
+        <v>281.77</v>
+      </c>
+      <c r="AX28">
+        <v>21.94</v>
+      </c>
+      <c r="AY28">
+        <v>4.7</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:51">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>91.18000000000001</v>
@@ -3294,36 +5034,96 @@
         <v>91.18000000000001</v>
       </c>
       <c r="Y29">
+        <v>6.43</v>
+      </c>
+      <c r="Z29">
+        <v>277.3</v>
+      </c>
+      <c r="AA29">
+        <v>4.62</v>
+      </c>
+      <c r="AB29">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AC29">
+        <v>7.3</v>
+      </c>
+      <c r="AD29">
+        <v>383.15</v>
+      </c>
+      <c r="AE29">
+        <v>6.39</v>
+      </c>
+      <c r="AF29">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AG29">
+        <v>6.98</v>
+      </c>
+      <c r="AH29">
+        <v>442.57</v>
+      </c>
+      <c r="AI29">
+        <v>7.38</v>
+      </c>
+      <c r="AJ29">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AK29">
+        <v>5.89</v>
+      </c>
+      <c r="AL29">
+        <v>412.92</v>
+      </c>
+      <c r="AM29">
+        <v>6.88</v>
+      </c>
+      <c r="AN29">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AO29">
+        <v>5.58</v>
+      </c>
+      <c r="AP29">
+        <v>460.37</v>
+      </c>
+      <c r="AQ29">
+        <v>7.67</v>
+      </c>
+      <c r="AR29">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AS29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>7.12</v>
-      </c>
-      <c r="AA29">
-        <v>0.98</v>
-      </c>
-      <c r="AB29">
-        <v>380.12</v>
-      </c>
-      <c r="AC29">
-        <v>31.24</v>
-      </c>
-      <c r="AD29">
-        <v>6.34</v>
-      </c>
-      <c r="AE29">
-        <v>0.52</v>
+      <c r="AT29">
+        <v>6.78</v>
+      </c>
+      <c r="AU29">
+        <v>0.89</v>
+      </c>
+      <c r="AV29">
+        <v>387.69</v>
+      </c>
+      <c r="AW29">
+        <v>53.05</v>
+      </c>
+      <c r="AX29">
+        <v>6.46</v>
+      </c>
+      <c r="AY29">
+        <v>0.88</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:51">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>48.2</v>
@@ -3389,36 +5189,96 @@
         <v>48.2</v>
       </c>
       <c r="Y30">
+        <v>3.44</v>
+      </c>
+      <c r="Z30">
+        <v>991.65</v>
+      </c>
+      <c r="AA30">
+        <v>16.53</v>
+      </c>
+      <c r="AB30">
+        <v>48.2</v>
+      </c>
+      <c r="AC30">
+        <v>2.9</v>
+      </c>
+      <c r="AD30">
+        <v>1378.19</v>
+      </c>
+      <c r="AE30">
+        <v>22.97</v>
+      </c>
+      <c r="AF30">
+        <v>48.2</v>
+      </c>
+      <c r="AG30">
+        <v>2.84</v>
+      </c>
+      <c r="AH30">
+        <v>1614.46</v>
+      </c>
+      <c r="AI30">
+        <v>26.91</v>
+      </c>
+      <c r="AJ30">
+        <v>48.2</v>
+      </c>
+      <c r="AK30">
+        <v>2.61</v>
+      </c>
+      <c r="AL30">
+        <v>1566.65</v>
+      </c>
+      <c r="AM30">
+        <v>26.11</v>
+      </c>
+      <c r="AN30">
+        <v>48.2</v>
+      </c>
+      <c r="AO30">
+        <v>2.84</v>
+      </c>
+      <c r="AP30">
+        <v>1426.62</v>
+      </c>
+      <c r="AQ30">
+        <v>23.78</v>
+      </c>
+      <c r="AR30">
+        <v>48.2</v>
+      </c>
+      <c r="AS30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>3.21</v>
-      </c>
-      <c r="AA30">
-        <v>0.44</v>
-      </c>
-      <c r="AB30">
-        <v>1720.84</v>
-      </c>
-      <c r="AC30">
-        <v>380.37</v>
-      </c>
-      <c r="AD30">
-        <v>28.68</v>
-      </c>
-      <c r="AE30">
-        <v>6.34</v>
+      <c r="AT30">
+        <v>3.07</v>
+      </c>
+      <c r="AU30">
+        <v>0.39</v>
+      </c>
+      <c r="AV30">
+        <v>1558.18</v>
+      </c>
+      <c r="AW30">
+        <v>347.2</v>
+      </c>
+      <c r="AX30">
+        <v>25.97</v>
+      </c>
+      <c r="AY30">
+        <v>5.79</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:51">
       <c r="A31" s="1">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>34.33</v>
@@ -3484,36 +5344,96 @@
         <v>34.33</v>
       </c>
       <c r="Y31">
+        <v>3.04</v>
+      </c>
+      <c r="Z31">
+        <v>1212.91</v>
+      </c>
+      <c r="AA31">
+        <v>20.22</v>
+      </c>
+      <c r="AB31">
+        <v>34.33</v>
+      </c>
+      <c r="AC31">
+        <v>3.1</v>
+      </c>
+      <c r="AD31">
+        <v>1597</v>
+      </c>
+      <c r="AE31">
+        <v>26.62</v>
+      </c>
+      <c r="AF31">
+        <v>34.33</v>
+      </c>
+      <c r="AG31">
+        <v>2.79</v>
+      </c>
+      <c r="AH31">
+        <v>1847.54</v>
+      </c>
+      <c r="AI31">
+        <v>30.79</v>
+      </c>
+      <c r="AJ31">
+        <v>34.33</v>
+      </c>
+      <c r="AK31">
+        <v>2.98</v>
+      </c>
+      <c r="AL31">
+        <v>1925.74</v>
+      </c>
+      <c r="AM31">
+        <v>32.1</v>
+      </c>
+      <c r="AN31">
+        <v>34.33</v>
+      </c>
+      <c r="AO31">
+        <v>3.03</v>
+      </c>
+      <c r="AP31">
+        <v>1591.32</v>
+      </c>
+      <c r="AQ31">
+        <v>26.52</v>
+      </c>
+      <c r="AR31">
+        <v>34.33</v>
+      </c>
+      <c r="AS31">
         <v>0</v>
       </c>
-      <c r="Z31">
-        <v>3.02</v>
-      </c>
-      <c r="AA31">
-        <v>0.3</v>
-      </c>
-      <c r="AB31">
-        <v>1969.3</v>
-      </c>
-      <c r="AC31">
-        <v>483.58</v>
-      </c>
-      <c r="AD31">
-        <v>32.82</v>
-      </c>
-      <c r="AE31">
-        <v>8.06</v>
+      <c r="AT31">
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <v>0.21</v>
+      </c>
+      <c r="AV31">
+        <v>1802.1</v>
+      </c>
+      <c r="AW31">
+        <v>411.79</v>
+      </c>
+      <c r="AX31">
+        <v>30.04</v>
+      </c>
+      <c r="AY31">
+        <v>6.86</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:51">
       <c r="A32" s="1">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>90.98999999999999</v>
@@ -3579,25 +5499,85 @@
         <v>90.98999999999999</v>
       </c>
       <c r="Y32">
+        <v>5.67</v>
+      </c>
+      <c r="Z32">
+        <v>278.38</v>
+      </c>
+      <c r="AA32">
+        <v>4.64</v>
+      </c>
+      <c r="AB32">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AC32">
+        <v>5.87</v>
+      </c>
+      <c r="AD32">
+        <v>438.2</v>
+      </c>
+      <c r="AE32">
+        <v>7.3</v>
+      </c>
+      <c r="AF32">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AG32">
+        <v>6.82</v>
+      </c>
+      <c r="AH32">
+        <v>376.83</v>
+      </c>
+      <c r="AI32">
+        <v>6.28</v>
+      </c>
+      <c r="AJ32">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AK32">
+        <v>6.47</v>
+      </c>
+      <c r="AL32">
+        <v>414.27</v>
+      </c>
+      <c r="AM32">
+        <v>6.9</v>
+      </c>
+      <c r="AN32">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AO32">
+        <v>5.35</v>
+      </c>
+      <c r="AP32">
+        <v>453.29</v>
+      </c>
+      <c r="AQ32">
+        <v>7.55</v>
+      </c>
+      <c r="AR32">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AS32">
         <v>0</v>
       </c>
-      <c r="Z32">
-        <v>6.02</v>
-      </c>
-      <c r="AA32">
-        <v>0.61</v>
-      </c>
-      <c r="AB32">
-        <v>383.16</v>
-      </c>
-      <c r="AC32">
-        <v>37.26</v>
-      </c>
-      <c r="AD32">
-        <v>6.39</v>
-      </c>
-      <c r="AE32">
-        <v>0.62</v>
+      <c r="AT32">
+        <v>6.03</v>
+      </c>
+      <c r="AU32">
+        <v>0.57</v>
+      </c>
+      <c r="AV32">
+        <v>387.68</v>
+      </c>
+      <c r="AW32">
+        <v>53</v>
+      </c>
+      <c r="AX32">
+        <v>6.46</v>
+      </c>
+      <c r="AY32">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
